--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\scripts\insta_bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22215" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,45 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
-  <si>
-    <t>anwar_____00000</t>
-  </si>
-  <si>
-    <t>123.0123.0a</t>
-  </si>
-  <si>
-    <t>123+123+</t>
-  </si>
-  <si>
-    <t>anwar1238473</t>
-  </si>
-  <si>
-    <t>anwar1231018</t>
-  </si>
-  <si>
-    <t>anwar1235361</t>
-  </si>
-  <si>
-    <t>anwar1236587</t>
-  </si>
-  <si>
-    <t>anwar1232412</t>
-  </si>
-  <si>
-    <t>anwar1234333</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,62 +367,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
